--- a/3/5/2/2/consumo - en pesos 2002 a 2021 - Mensual.xlsx
+++ b/3/5/2/2/consumo - en pesos 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t>Serie</t>
   </si>
@@ -734,6 +734,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F235"/>
+  <dimension ref="A1:F236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5797,6 +5800,26 @@
         <v>15.94</v>
       </c>
     </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>240</v>
+      </c>
+      <c r="B236">
+        <v>18.28</v>
+      </c>
+      <c r="C236">
+        <v>8.35</v>
+      </c>
+      <c r="D236">
+        <v>23.14</v>
+      </c>
+      <c r="E236">
+        <v>19.92</v>
+      </c>
+      <c r="F236">
+        <v>16.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/2/consumo - en pesos 2002 a 2021 - Mensual.xlsx
+++ b/3/5/2/2/consumo - en pesos 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>Serie</t>
   </si>
@@ -737,6 +737,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F236"/>
+  <dimension ref="A1:F237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5820,6 +5823,26 @@
         <v>16.03</v>
       </c>
     </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>241</v>
+      </c>
+      <c r="B237">
+        <v>18.02</v>
+      </c>
+      <c r="C237">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="D237">
+        <v>23.31</v>
+      </c>
+      <c r="E237">
+        <v>19.67</v>
+      </c>
+      <c r="F237">
+        <v>15.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/2/consumo - en pesos 2002 a 2021 - Mensual.xlsx
+++ b/3/5/2/2/consumo - en pesos 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>Serie</t>
   </si>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F237"/>
+  <dimension ref="A1:F238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5843,6 +5846,26 @@
         <v>15.2</v>
       </c>
     </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>242</v>
+      </c>
+      <c r="B238">
+        <v>19.34</v>
+      </c>
+      <c r="C238">
+        <v>8.470000000000001</v>
+      </c>
+      <c r="D238">
+        <v>24.13</v>
+      </c>
+      <c r="E238">
+        <v>20.79</v>
+      </c>
+      <c r="F238">
+        <v>17.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/2/2/consumo - en pesos 2002 a 2021 - Mensual.xlsx
+++ b/3/5/2/2/consumo - en pesos 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>Serie</t>
   </si>
@@ -743,6 +743,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1103,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F238"/>
+  <dimension ref="A1:F239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5866,6 +5869,26 @@
         <v>17.08</v>
       </c>
     </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="s">
+        <v>243</v>
+      </c>
+      <c r="B239">
+        <v>19.79</v>
+      </c>
+      <c r="C239">
+        <v>8.76</v>
+      </c>
+      <c r="D239">
+        <v>24.35</v>
+      </c>
+      <c r="E239">
+        <v>20.74</v>
+      </c>
+      <c r="F239">
+        <v>17.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
